--- a/biology/Botanique/Lythraceae/Lythraceae.xlsx
+++ b/biology/Botanique/Lythraceae/Lythraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Lythraceae (Lythracées) est constituée de plantes dicotylédones ; elle compte 620 espèces réparties en une trentaine de genres.
 Ce sont des arbres ou des herbes vivaces ou annuelles, dont certaines sont aquatiques.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type  Lythrum forme latinisée du grec ancien λυθρον / lythron, « sang mêlé de poussière », en référence à la couleur des fleurs, d’où le nom employé par Dioscoride[1], médecin, pharmacologue et botaniste grec du Ier siècle ap. J.-C.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Lythrum forme latinisée du grec ancien λυθρον / lythron, « sang mêlé de poussière », en référence à la couleur des fleurs, d’où le nom employé par Dioscoride, médecin, pharmacologue et botaniste grec du Ier siècle ap. J.-C.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010) :
 Adenaria Kunth
 Ammannia L.
 Capuronia Lourteig
@@ -579,7 +595,7 @@
 Tetrataxis J. D. Hooker
 Trapa L.
 Woodfordia Salisb.
-Selon NCBI  (1 juin 2010)[3] :
+Selon NCBI  (1 juin 2010) :
 Adenaria
 Ammannia
 Capuronia
@@ -608,7 +624,7 @@
 Tetrataxis
 Trapa
 Woodfordia
-Selon DELTA Angio           (1 juin 2010)[4] :
+Selon DELTA Angio           (1 juin 2010) :
 Adenaria
 Ammannia
 Capuronia
@@ -637,7 +653,7 @@
 Rotala
 Tetrataxis
 Woodfordia
-Selon ITIS      (3 nov. 2017)[5] :
+Selon ITIS      (3 nov. 2017) :
 Ammannia L.
 Cuphea P. Br.
 Decodon J.F. Gmel.
@@ -681,9 +697,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (1 juin 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 juin 2010) :
 genre Adenaria
 Adenaria floribunda
 genre Ammannia
